--- a/porównanie_WIELKOPOLSKIE_POMORSKIE_Comparison.xlsx
+++ b/porównanie_WIELKOPOLSKIE_POMORSKIE_Comparison.xlsx
@@ -1,37 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>WIELKOPOLSKIE</t>
+  </si>
+  <si>
+    <t>POMORSKIE</t>
+  </si>
+  <si>
+    <t>Comparison</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Mieszkania oddane do użytkowania na 1000 ludności</t>
+  </si>
+  <si>
+    <t>Mieszkania oddane do użytkowania na 10 tys. ludności</t>
+  </si>
+  <si>
+    <t>Mieszkania oddane do użytkowania na 1000 zawartych małżeństw</t>
+  </si>
+  <si>
+    <t>Powierzchnia użytkowa mieszkań oddanych do użytkowania na 1000 ludności (m2)</t>
+  </si>
+  <si>
+    <t>Przeciętna powierzchnia użytkowa 1 mieszkania oddanego do użytkowania (m2)</t>
+  </si>
+  <si>
+    <t>Przeciętna liczba izb w 1 mieszkaniu oddanym do użytkowania</t>
+  </si>
+  <si>
+    <t>Nowe budynki mieszkalne na 1000 ludności</t>
+  </si>
+  <si>
+    <t>Udział mieszkań oddanych do użytkowania w nowych budynkach jednorodzinnych w łącznej liczbie mieszkań oddanych do użytkowania w nowych budynkach mieszkalnych (%)</t>
+  </si>
+  <si>
+    <t>Udział mieszkań oddanych do użytkowania w nowych budynkach wielorodzinnych w łącznej liczbie mieszkań oddanych do użytkowania w nowych budynkach mieszkalnych (%)</t>
+  </si>
+  <si>
+    <t>Przeciętny czas trwania budowy nowych budynków mieszkalnych jednorodzinnych (mc)</t>
+  </si>
+  <si>
+    <t>Liczba lokali mieszkalnych sprzedanych w ramach transakcji rynkowych (szt.)</t>
+  </si>
+  <si>
+    <t>Powierzchnia użytkowa lokali mieszkalnych sprzedanych w ramach transakcji rynkowych (m2)</t>
+  </si>
+  <si>
+    <t>Średnia cena lokali mieszkalnych sprzedanych w ramach transakcji rynkowych (zł)</t>
+  </si>
+  <si>
+    <t>Mediana cen za 1 m2 lokali mieszkalnych sprzedanych w ramach transakcji rynkowych (zł)</t>
+  </si>
+  <si>
+    <t>Średnia cena za 1 m2 lokali mieszkalnych sprzedanych w ramach transakcji rynkowych (zł)</t>
+  </si>
+  <si>
+    <t>Grunty pozostające w zasobie gmin pod budownictwo mieszkaniowe (ha)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +114,51 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,293 +446,441 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>WIELKOPOLSKIE</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>POMORSKIE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Comparison</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>mieszkania oddane do użytkowania na 1000 ludności</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
         <v>6.3</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C3">
         <v>8.1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3">
         <v>-1.8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>mieszkania oddane do użytkowania na 10 tys. ludności</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
         <v>62.7</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C4">
         <v>80.90000000000001</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4">
         <v>-18.2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>mieszkania oddane do użytkowania na 1000 zawartych małżeństw</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
         <v>1572</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C5">
         <v>2024</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5">
         <v>-452</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>powierzchnia użytkowa mieszkań oddanych do użytkowania na 1000 ludności</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
         <v>575</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C6">
         <v>645.2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6">
         <v>-70.20000000000005</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>przeciętna powierzchnia użytkowa 1 mieszkania oddanego do użytkowania</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
         <v>91.59999999999999</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C7">
         <v>79.7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7">
         <v>11.89999999999999</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>przeciętna liczba izb w 1 mieszkaniu oddanym do użytkowania</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
         <v>3.9</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C8">
         <v>3.4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>nowe budynki mieszkalne na 1000 ludności</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
         <v>3.1</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9">
         <v>2.8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9">
         <v>0.3000000000000003</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>udział mieszkań oddanych do użytkowania w nowych budynkach jednorodzinnych w łącznej liczbie mieszkań oddanych do użytkowania w nowych budynkach mieszkalnych</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
         <v>0.6</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C10">
         <v>0.4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10">
         <v>0.2</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>udział mieszkań oddanych do użytkowania w nowych budynkach wielorodzinnych w łącznej liczbie mieszkań oddanych do użytkowania w nowych budynkach mieszkalnych</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
         <v>0.4</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C11">
         <v>0.6</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D11">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>przeciętny czas trwania budowy nowych budynków mieszkalnych jednorodzinnych</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
         <v>32.8</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12">
         <v>43.1</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12">
         <v>-10.3</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Liczba lokali mieszkalnych sprzedanych w ramach transakcji rynkowych</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8942</v>
-      </c>
-      <c r="C12" t="n">
-        <v>11001</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-2059</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Powierzchnia użytkowa lokali mieszkalnych sprzedanych w ramach transakcji rynkowych</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>528553</v>
-      </c>
-      <c r="C13" t="n">
-        <v>622212</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-93659</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Średnia cena lokali mieszkalnych sprzedanych w ramach transakcji rynkowych</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>296696</v>
-      </c>
-      <c r="C14" t="n">
-        <v>390676</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-93980</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Mediana cen za 1 m2 lokali mieszkalnych sprzedanych w ramach transakcji rynkowych</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4749</v>
-      </c>
-      <c r="C15" t="n">
-        <v>6246</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-1497</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Średnia cena za 1 m2 lokali mieszkalnych sprzedanych w ramach transakcji rynkowych</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5019</v>
-      </c>
-      <c r="C16" t="n">
-        <v>6907</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-1888</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Grunty pozostające w zasobie gmin pod budownictwo mieszkaniowe</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>16508</v>
+      </c>
+      <c r="C13">
+        <v>21900</v>
+      </c>
+      <c r="D13">
+        <v>-5392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>957678.2</v>
+      </c>
+      <c r="C14">
+        <v>1213189.7</v>
+      </c>
+      <c r="D14">
+        <v>-255511.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>276151</v>
+      </c>
+      <c r="C15">
+        <v>373985</v>
+      </c>
+      <c r="D15">
+        <v>-97834</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>4626</v>
+      </c>
+      <c r="C16">
+        <v>6343</v>
+      </c>
+      <c r="D16">
+        <v>-1717</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>4760</v>
+      </c>
+      <c r="C17">
+        <v>6751</v>
+      </c>
+      <c r="D17">
+        <v>-1991</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
         <v>1343.8</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C18">
         <v>2865.2</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D18">
         <v>-1521.4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="cellIs" dxfId="0" priority="25" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="27" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="0" priority="28" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="29" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="30" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="0" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="32" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="33" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="0" priority="34" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="35" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="36" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="cellIs" dxfId="0" priority="37" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="38" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="39" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="0" priority="40" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="41" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="42" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="cellIs" dxfId="0" priority="43" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="44" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="45" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="0" priority="46" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="47" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="48" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="0" priority="49" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="50" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="51" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="12" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="15" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="18" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="0" priority="19" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="21" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="0" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="23" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="24" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>